--- a/EstimaciónDeCostos.xlsx
+++ b/EstimaciónDeCostos.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\everardo_martinez\Desktop\Personal\InventoryManagement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Jahaziel\InventoryManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13890" windowHeight="8145" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13890" windowHeight="8145" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="VAF" sheetId="1" r:id="rId1"/>
+    <sheet name="FP" sheetId="2" r:id="rId2"/>
+    <sheet name="Costo total" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="44">
   <si>
     <t>Características generales del sistema (GSC’s)</t>
   </si>
@@ -162,7 +163,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -409,6 +410,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -444,21 +460,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -743,7 +744,7 @@
   <dimension ref="B1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B2" sqref="B2:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="N127" sqref="N127"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,57 +933,57 @@
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="11" t="s">
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="12"/>
-      <c r="C4" s="17" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="12"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="17"/>
     </row>
     <row r="5" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="13"/>
-      <c r="C5" s="20" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="20" t="s">
+      <c r="D5" s="26"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="20" t="s">
+      <c r="G5" s="26"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="21"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="13"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="18"/>
     </row>
     <row r="6" spans="2:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
@@ -1156,72 +1157,72 @@
       </c>
     </row>
     <row r="11" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="23"/>
-      <c r="C11" s="25" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="27"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="15"/>
       <c r="L11" s="7">
         <f>SUM(L6:L10)</f>
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="24"/>
-      <c r="C12" s="25" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="27"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="15"/>
       <c r="L12" s="7">
-        <f>Hoja1!$C$20</f>
+        <f>VAF!$C$20</f>
         <v>1.08</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="24"/>
-      <c r="C13" s="25" t="s">
+      <c r="B13" s="12"/>
+      <c r="C13" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="27"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="15"/>
       <c r="L13" s="7">
         <f>L11*L12</f>
         <v>17.28</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="24"/>
-      <c r="C14" s="25" t="s">
+      <c r="B14" s="12"/>
+      <c r="C14" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="27"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="15"/>
       <c r="L14" s="7">
         <f>L13*$L$1</f>
         <v>17.28</v>
@@ -1237,57 +1238,57 @@
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="11" t="s">
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
-      <c r="C18" s="17" t="s">
+      <c r="B18" s="17"/>
+      <c r="C18" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="12"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="17"/>
     </row>
     <row r="19" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="13"/>
-      <c r="C19" s="20" t="s">
+      <c r="B19" s="18"/>
+      <c r="C19" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="20" t="s">
+      <c r="D19" s="26"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="21"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="20" t="s">
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="21"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="13"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="18"/>
     </row>
     <row r="20" spans="2:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
@@ -1461,72 +1462,72 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="23"/>
-      <c r="C25" s="25" t="s">
+      <c r="B25" s="11"/>
+      <c r="C25" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="27"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="15"/>
       <c r="L25" s="7">
         <f>SUM(L20:L24)</f>
         <v>19</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="24"/>
-      <c r="C26" s="25" t="s">
+      <c r="B26" s="12"/>
+      <c r="C26" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="27"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="15"/>
       <c r="L26" s="7">
-        <f>Hoja1!$C$20</f>
+        <f>VAF!$C$20</f>
         <v>1.08</v>
       </c>
     </row>
     <row r="27" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="24"/>
-      <c r="C27" s="25" t="s">
+      <c r="B27" s="12"/>
+      <c r="C27" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="27"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="15"/>
       <c r="L27" s="7">
         <f>L25*L26</f>
         <v>20.520000000000003</v>
       </c>
     </row>
     <row r="28" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="24"/>
-      <c r="C28" s="25" t="s">
+      <c r="B28" s="12"/>
+      <c r="C28" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="27"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="15"/>
       <c r="L28" s="7">
         <f>L27*$L$1</f>
         <v>20.520000000000003</v>
@@ -1542,57 +1543,57 @@
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="11" t="s">
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="32" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="12"/>
-      <c r="C32" s="17" t="s">
+      <c r="B32" s="17"/>
+      <c r="C32" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="12"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="17"/>
     </row>
     <row r="33" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="13"/>
-      <c r="C33" s="20" t="s">
+      <c r="B33" s="18"/>
+      <c r="C33" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="21"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="20" t="s">
+      <c r="D33" s="26"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="21"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="20" t="s">
+      <c r="G33" s="26"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="J33" s="21"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="13"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="18"/>
     </row>
     <row r="34" spans="2:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="2" t="s">
@@ -1766,72 +1767,72 @@
       </c>
     </row>
     <row r="39" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="23"/>
-      <c r="C39" s="25" t="s">
+      <c r="B39" s="11"/>
+      <c r="C39" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="27"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="15"/>
       <c r="L39" s="7">
         <f>SUM(L34:L38)</f>
         <v>19</v>
       </c>
     </row>
     <row r="40" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="24"/>
-      <c r="C40" s="25" t="s">
+      <c r="B40" s="12"/>
+      <c r="C40" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="27"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="15"/>
       <c r="L40" s="7">
-        <f>Hoja1!$C$20</f>
+        <f>VAF!$C$20</f>
         <v>1.08</v>
       </c>
     </row>
     <row r="41" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="24"/>
-      <c r="C41" s="25" t="s">
+      <c r="B41" s="12"/>
+      <c r="C41" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="27"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="15"/>
       <c r="L41" s="7">
         <f>L39*L40</f>
         <v>20.520000000000003</v>
       </c>
     </row>
     <row r="42" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="24"/>
-      <c r="C42" s="25" t="s">
+      <c r="B42" s="12"/>
+      <c r="C42" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="27"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="15"/>
       <c r="L42" s="7">
         <f>L41*$L$1</f>
         <v>20.520000000000003</v>
@@ -1847,57 +1848,57 @@
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="11" t="s">
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="46" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="12"/>
-      <c r="C46" s="17" t="s">
+      <c r="B46" s="17"/>
+      <c r="C46" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="12"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="17"/>
     </row>
     <row r="47" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="13"/>
-      <c r="C47" s="20" t="s">
+      <c r="B47" s="18"/>
+      <c r="C47" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D47" s="21"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="20" t="s">
+      <c r="D47" s="26"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="G47" s="21"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="20" t="s">
+      <c r="G47" s="26"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="J47" s="21"/>
-      <c r="K47" s="22"/>
-      <c r="L47" s="13"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="18"/>
     </row>
     <row r="48" spans="2:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="2" t="s">
@@ -2071,72 +2072,72 @@
       </c>
     </row>
     <row r="53" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="23"/>
-      <c r="C53" s="25" t="s">
+      <c r="B53" s="11"/>
+      <c r="C53" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="26"/>
-      <c r="K53" s="27"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="15"/>
       <c r="L53" s="7">
         <f>SUM(L48:L52)</f>
         <v>29</v>
       </c>
     </row>
     <row r="54" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="24"/>
-      <c r="C54" s="25" t="s">
+      <c r="B54" s="12"/>
+      <c r="C54" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="26"/>
-      <c r="K54" s="27"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="15"/>
       <c r="L54" s="7">
-        <f>Hoja1!$C$20</f>
+        <f>VAF!$C$20</f>
         <v>1.08</v>
       </c>
     </row>
     <row r="55" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="24"/>
-      <c r="C55" s="25" t="s">
+      <c r="B55" s="12"/>
+      <c r="C55" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="26"/>
-      <c r="K55" s="27"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="15"/>
       <c r="L55" s="7">
         <f>L53*L54</f>
         <v>31.32</v>
       </c>
     </row>
     <row r="56" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="24"/>
-      <c r="C56" s="25" t="s">
+      <c r="B56" s="12"/>
+      <c r="C56" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="26"/>
-      <c r="I56" s="26"/>
-      <c r="J56" s="26"/>
-      <c r="K56" s="27"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="15"/>
       <c r="L56" s="7">
         <f>L55*$L$1</f>
         <v>31.32</v>
@@ -2152,57 +2153,57 @@
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C59" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="15"/>
-      <c r="K59" s="16"/>
-      <c r="L59" s="11" t="s">
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="20"/>
+      <c r="K59" s="21"/>
+      <c r="L59" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="60" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="12"/>
-      <c r="C60" s="17" t="s">
+      <c r="B60" s="17"/>
+      <c r="C60" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="18"/>
-      <c r="I60" s="18"/>
-      <c r="J60" s="18"/>
-      <c r="K60" s="19"/>
-      <c r="L60" s="12"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="23"/>
+      <c r="I60" s="23"/>
+      <c r="J60" s="23"/>
+      <c r="K60" s="24"/>
+      <c r="L60" s="17"/>
     </row>
     <row r="61" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="13"/>
-      <c r="C61" s="20" t="s">
+      <c r="B61" s="18"/>
+      <c r="C61" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D61" s="21"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="20" t="s">
+      <c r="D61" s="26"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="G61" s="21"/>
-      <c r="H61" s="22"/>
-      <c r="I61" s="20" t="s">
+      <c r="G61" s="26"/>
+      <c r="H61" s="27"/>
+      <c r="I61" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="J61" s="21"/>
-      <c r="K61" s="22"/>
-      <c r="L61" s="13"/>
+      <c r="J61" s="26"/>
+      <c r="K61" s="27"/>
+      <c r="L61" s="18"/>
     </row>
     <row r="62" spans="2:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="2" t="s">
@@ -2376,72 +2377,72 @@
       </c>
     </row>
     <row r="67" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="23"/>
-      <c r="C67" s="25" t="s">
+      <c r="B67" s="11"/>
+      <c r="C67" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="26"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="26"/>
-      <c r="H67" s="26"/>
-      <c r="I67" s="26"/>
-      <c r="J67" s="26"/>
-      <c r="K67" s="27"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="14"/>
+      <c r="K67" s="15"/>
       <c r="L67" s="7">
         <f>SUM(L62:L66)</f>
         <v>16</v>
       </c>
     </row>
     <row r="68" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="24"/>
-      <c r="C68" s="25" t="s">
+      <c r="B68" s="12"/>
+      <c r="C68" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="26"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="26"/>
-      <c r="H68" s="26"/>
-      <c r="I68" s="26"/>
-      <c r="J68" s="26"/>
-      <c r="K68" s="27"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="15"/>
       <c r="L68" s="7">
-        <f>Hoja1!$C$20</f>
+        <f>VAF!$C$20</f>
         <v>1.08</v>
       </c>
     </row>
     <row r="69" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="24"/>
-      <c r="C69" s="25" t="s">
+      <c r="B69" s="12"/>
+      <c r="C69" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="26"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="26"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="26"/>
-      <c r="I69" s="26"/>
-      <c r="J69" s="26"/>
-      <c r="K69" s="27"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="14"/>
+      <c r="K69" s="15"/>
       <c r="L69" s="7">
         <f>L67*L68</f>
         <v>17.28</v>
       </c>
     </row>
     <row r="70" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="24"/>
-      <c r="C70" s="25" t="s">
+      <c r="B70" s="12"/>
+      <c r="C70" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="26"/>
-      <c r="E70" s="26"/>
-      <c r="F70" s="26"/>
-      <c r="G70" s="26"/>
-      <c r="H70" s="26"/>
-      <c r="I70" s="26"/>
-      <c r="J70" s="26"/>
-      <c r="K70" s="27"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="14"/>
+      <c r="K70" s="15"/>
       <c r="L70" s="7">
         <f>L69*$L$1</f>
         <v>17.28</v>
@@ -2457,57 +2458,57 @@
       </c>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B73" s="11" t="s">
+      <c r="B73" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C73" s="14" t="s">
+      <c r="C73" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="15"/>
-      <c r="K73" s="16"/>
-      <c r="L73" s="11" t="s">
+      <c r="D73" s="20"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="20"/>
+      <c r="K73" s="21"/>
+      <c r="L73" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="74" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="12"/>
-      <c r="C74" s="17" t="s">
+      <c r="B74" s="17"/>
+      <c r="C74" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="18"/>
-      <c r="H74" s="18"/>
-      <c r="I74" s="18"/>
-      <c r="J74" s="18"/>
-      <c r="K74" s="19"/>
-      <c r="L74" s="12"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="23"/>
+      <c r="H74" s="23"/>
+      <c r="I74" s="23"/>
+      <c r="J74" s="23"/>
+      <c r="K74" s="24"/>
+      <c r="L74" s="17"/>
     </row>
     <row r="75" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="13"/>
-      <c r="C75" s="20" t="s">
+      <c r="B75" s="18"/>
+      <c r="C75" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D75" s="21"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="20" t="s">
+      <c r="D75" s="26"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="G75" s="21"/>
-      <c r="H75" s="22"/>
-      <c r="I75" s="20" t="s">
+      <c r="G75" s="26"/>
+      <c r="H75" s="27"/>
+      <c r="I75" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="J75" s="21"/>
-      <c r="K75" s="22"/>
-      <c r="L75" s="13"/>
+      <c r="J75" s="26"/>
+      <c r="K75" s="27"/>
+      <c r="L75" s="18"/>
     </row>
     <row r="76" spans="2:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="2" t="s">
@@ -2683,72 +2684,72 @@
       </c>
     </row>
     <row r="81" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="23"/>
-      <c r="C81" s="25" t="s">
+      <c r="B81" s="11"/>
+      <c r="C81" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="26"/>
-      <c r="E81" s="26"/>
-      <c r="F81" s="26"/>
-      <c r="G81" s="26"/>
-      <c r="H81" s="26"/>
-      <c r="I81" s="26"/>
-      <c r="J81" s="26"/>
-      <c r="K81" s="27"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="14"/>
+      <c r="J81" s="14"/>
+      <c r="K81" s="15"/>
       <c r="L81" s="7">
         <f>SUM(L76:L80)</f>
         <v>26</v>
       </c>
     </row>
     <row r="82" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="24"/>
-      <c r="C82" s="25" t="s">
+      <c r="B82" s="12"/>
+      <c r="C82" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D82" s="26"/>
-      <c r="E82" s="26"/>
-      <c r="F82" s="26"/>
-      <c r="G82" s="26"/>
-      <c r="H82" s="26"/>
-      <c r="I82" s="26"/>
-      <c r="J82" s="26"/>
-      <c r="K82" s="27"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="14"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="14"/>
+      <c r="J82" s="14"/>
+      <c r="K82" s="15"/>
       <c r="L82" s="7">
-        <f>Hoja1!$C$20</f>
+        <f>VAF!$C$20</f>
         <v>1.08</v>
       </c>
     </row>
     <row r="83" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="24"/>
-      <c r="C83" s="25" t="s">
+      <c r="B83" s="12"/>
+      <c r="C83" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D83" s="26"/>
-      <c r="E83" s="26"/>
-      <c r="F83" s="26"/>
-      <c r="G83" s="26"/>
-      <c r="H83" s="26"/>
-      <c r="I83" s="26"/>
-      <c r="J83" s="26"/>
-      <c r="K83" s="27"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="14"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="14"/>
+      <c r="J83" s="14"/>
+      <c r="K83" s="15"/>
       <c r="L83" s="7">
         <f>L81*L82</f>
         <v>28.080000000000002</v>
       </c>
     </row>
     <row r="84" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="24"/>
-      <c r="C84" s="25" t="s">
+      <c r="B84" s="12"/>
+      <c r="C84" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D84" s="26"/>
-      <c r="E84" s="26"/>
-      <c r="F84" s="26"/>
-      <c r="G84" s="26"/>
-      <c r="H84" s="26"/>
-      <c r="I84" s="26"/>
-      <c r="J84" s="26"/>
-      <c r="K84" s="27"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="14"/>
+      <c r="J84" s="14"/>
+      <c r="K84" s="15"/>
       <c r="L84" s="7">
         <f>L83*$L$1</f>
         <v>28.080000000000002</v>
@@ -2764,57 +2765,57 @@
       </c>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B87" s="11" t="s">
+      <c r="B87" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C87" s="14" t="s">
+      <c r="C87" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D87" s="15"/>
-      <c r="E87" s="15"/>
-      <c r="F87" s="15"/>
-      <c r="G87" s="15"/>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
-      <c r="J87" s="15"/>
-      <c r="K87" s="16"/>
-      <c r="L87" s="11" t="s">
+      <c r="D87" s="20"/>
+      <c r="E87" s="20"/>
+      <c r="F87" s="20"/>
+      <c r="G87" s="20"/>
+      <c r="H87" s="20"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="20"/>
+      <c r="K87" s="21"/>
+      <c r="L87" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="88" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="12"/>
-      <c r="C88" s="17" t="s">
+      <c r="B88" s="17"/>
+      <c r="C88" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D88" s="18"/>
-      <c r="E88" s="18"/>
-      <c r="F88" s="18"/>
-      <c r="G88" s="18"/>
-      <c r="H88" s="18"/>
-      <c r="I88" s="18"/>
-      <c r="J88" s="18"/>
-      <c r="K88" s="19"/>
-      <c r="L88" s="12"/>
+      <c r="D88" s="23"/>
+      <c r="E88" s="23"/>
+      <c r="F88" s="23"/>
+      <c r="G88" s="23"/>
+      <c r="H88" s="23"/>
+      <c r="I88" s="23"/>
+      <c r="J88" s="23"/>
+      <c r="K88" s="24"/>
+      <c r="L88" s="17"/>
     </row>
     <row r="89" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="13"/>
-      <c r="C89" s="20" t="s">
+      <c r="B89" s="18"/>
+      <c r="C89" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D89" s="21"/>
-      <c r="E89" s="22"/>
-      <c r="F89" s="20" t="s">
+      <c r="D89" s="26"/>
+      <c r="E89" s="27"/>
+      <c r="F89" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="G89" s="21"/>
-      <c r="H89" s="22"/>
-      <c r="I89" s="20" t="s">
+      <c r="G89" s="26"/>
+      <c r="H89" s="27"/>
+      <c r="I89" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="J89" s="21"/>
-      <c r="K89" s="22"/>
-      <c r="L89" s="13"/>
+      <c r="J89" s="26"/>
+      <c r="K89" s="27"/>
+      <c r="L89" s="18"/>
     </row>
     <row r="90" spans="2:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B90" s="2" t="s">
@@ -2988,72 +2989,72 @@
       </c>
     </row>
     <row r="95" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="23"/>
-      <c r="C95" s="25" t="s">
+      <c r="B95" s="11"/>
+      <c r="C95" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D95" s="26"/>
-      <c r="E95" s="26"/>
-      <c r="F95" s="26"/>
-      <c r="G95" s="26"/>
-      <c r="H95" s="26"/>
-      <c r="I95" s="26"/>
-      <c r="J95" s="26"/>
-      <c r="K95" s="27"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c r="G95" s="14"/>
+      <c r="H95" s="14"/>
+      <c r="I95" s="14"/>
+      <c r="J95" s="14"/>
+      <c r="K95" s="15"/>
       <c r="L95" s="7">
         <f>SUM(L90:L94)</f>
         <v>16</v>
       </c>
     </row>
     <row r="96" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="24"/>
-      <c r="C96" s="25" t="s">
+      <c r="B96" s="12"/>
+      <c r="C96" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D96" s="26"/>
-      <c r="E96" s="26"/>
-      <c r="F96" s="26"/>
-      <c r="G96" s="26"/>
-      <c r="H96" s="26"/>
-      <c r="I96" s="26"/>
-      <c r="J96" s="26"/>
-      <c r="K96" s="27"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c r="G96" s="14"/>
+      <c r="H96" s="14"/>
+      <c r="I96" s="14"/>
+      <c r="J96" s="14"/>
+      <c r="K96" s="15"/>
       <c r="L96" s="7">
-        <f>Hoja1!$C$20</f>
+        <f>VAF!$C$20</f>
         <v>1.08</v>
       </c>
     </row>
     <row r="97" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="24"/>
-      <c r="C97" s="25" t="s">
+      <c r="B97" s="12"/>
+      <c r="C97" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D97" s="26"/>
-      <c r="E97" s="26"/>
-      <c r="F97" s="26"/>
-      <c r="G97" s="26"/>
-      <c r="H97" s="26"/>
-      <c r="I97" s="26"/>
-      <c r="J97" s="26"/>
-      <c r="K97" s="27"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c r="G97" s="14"/>
+      <c r="H97" s="14"/>
+      <c r="I97" s="14"/>
+      <c r="J97" s="14"/>
+      <c r="K97" s="15"/>
       <c r="L97" s="7">
         <f>L95*L96</f>
         <v>17.28</v>
       </c>
     </row>
     <row r="98" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="24"/>
-      <c r="C98" s="25" t="s">
+      <c r="B98" s="12"/>
+      <c r="C98" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D98" s="26"/>
-      <c r="E98" s="26"/>
-      <c r="F98" s="26"/>
-      <c r="G98" s="26"/>
-      <c r="H98" s="26"/>
-      <c r="I98" s="26"/>
-      <c r="J98" s="26"/>
-      <c r="K98" s="27"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="14"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="14"/>
+      <c r="J98" s="14"/>
+      <c r="K98" s="15"/>
       <c r="L98" s="7">
         <f>L97*$L$1</f>
         <v>17.28</v>
@@ -3069,57 +3070,57 @@
       </c>
     </row>
     <row r="101" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B101" s="11" t="s">
+      <c r="B101" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C101" s="14" t="s">
+      <c r="C101" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D101" s="15"/>
-      <c r="E101" s="15"/>
-      <c r="F101" s="15"/>
-      <c r="G101" s="15"/>
-      <c r="H101" s="15"/>
-      <c r="I101" s="15"/>
-      <c r="J101" s="15"/>
-      <c r="K101" s="16"/>
-      <c r="L101" s="11" t="s">
+      <c r="D101" s="20"/>
+      <c r="E101" s="20"/>
+      <c r="F101" s="20"/>
+      <c r="G101" s="20"/>
+      <c r="H101" s="20"/>
+      <c r="I101" s="20"/>
+      <c r="J101" s="20"/>
+      <c r="K101" s="21"/>
+      <c r="L101" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="102" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="12"/>
-      <c r="C102" s="17" t="s">
+      <c r="B102" s="17"/>
+      <c r="C102" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D102" s="18"/>
-      <c r="E102" s="18"/>
-      <c r="F102" s="18"/>
-      <c r="G102" s="18"/>
-      <c r="H102" s="18"/>
-      <c r="I102" s="18"/>
-      <c r="J102" s="18"/>
-      <c r="K102" s="19"/>
-      <c r="L102" s="12"/>
+      <c r="D102" s="23"/>
+      <c r="E102" s="23"/>
+      <c r="F102" s="23"/>
+      <c r="G102" s="23"/>
+      <c r="H102" s="23"/>
+      <c r="I102" s="23"/>
+      <c r="J102" s="23"/>
+      <c r="K102" s="24"/>
+      <c r="L102" s="17"/>
     </row>
     <row r="103" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="13"/>
-      <c r="C103" s="20" t="s">
+      <c r="B103" s="18"/>
+      <c r="C103" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D103" s="21"/>
-      <c r="E103" s="22"/>
-      <c r="F103" s="20" t="s">
+      <c r="D103" s="26"/>
+      <c r="E103" s="27"/>
+      <c r="F103" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="G103" s="21"/>
-      <c r="H103" s="22"/>
-      <c r="I103" s="20" t="s">
+      <c r="G103" s="26"/>
+      <c r="H103" s="27"/>
+      <c r="I103" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="J103" s="21"/>
-      <c r="K103" s="22"/>
-      <c r="L103" s="13"/>
+      <c r="J103" s="26"/>
+      <c r="K103" s="27"/>
+      <c r="L103" s="18"/>
     </row>
     <row r="104" spans="2:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B104" s="2" t="s">
@@ -3295,72 +3296,72 @@
       </c>
     </row>
     <row r="109" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="23"/>
-      <c r="C109" s="25" t="s">
+      <c r="B109" s="11"/>
+      <c r="C109" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D109" s="26"/>
-      <c r="E109" s="26"/>
-      <c r="F109" s="26"/>
-      <c r="G109" s="26"/>
-      <c r="H109" s="26"/>
-      <c r="I109" s="26"/>
-      <c r="J109" s="26"/>
-      <c r="K109" s="27"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c r="G109" s="14"/>
+      <c r="H109" s="14"/>
+      <c r="I109" s="14"/>
+      <c r="J109" s="14"/>
+      <c r="K109" s="15"/>
       <c r="L109" s="7">
         <f>SUM(L104:L108)</f>
         <v>33</v>
       </c>
     </row>
     <row r="110" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="24"/>
-      <c r="C110" s="25" t="s">
+      <c r="B110" s="12"/>
+      <c r="C110" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D110" s="26"/>
-      <c r="E110" s="26"/>
-      <c r="F110" s="26"/>
-      <c r="G110" s="26"/>
-      <c r="H110" s="26"/>
-      <c r="I110" s="26"/>
-      <c r="J110" s="26"/>
-      <c r="K110" s="27"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c r="G110" s="14"/>
+      <c r="H110" s="14"/>
+      <c r="I110" s="14"/>
+      <c r="J110" s="14"/>
+      <c r="K110" s="15"/>
       <c r="L110" s="7">
-        <f>Hoja1!$C$20</f>
+        <f>VAF!$C$20</f>
         <v>1.08</v>
       </c>
     </row>
     <row r="111" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="24"/>
-      <c r="C111" s="25" t="s">
+      <c r="B111" s="12"/>
+      <c r="C111" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D111" s="26"/>
-      <c r="E111" s="26"/>
-      <c r="F111" s="26"/>
-      <c r="G111" s="26"/>
-      <c r="H111" s="26"/>
-      <c r="I111" s="26"/>
-      <c r="J111" s="26"/>
-      <c r="K111" s="27"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c r="G111" s="14"/>
+      <c r="H111" s="14"/>
+      <c r="I111" s="14"/>
+      <c r="J111" s="14"/>
+      <c r="K111" s="15"/>
       <c r="L111" s="7">
         <f>L109*L110</f>
         <v>35.64</v>
       </c>
     </row>
     <row r="112" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="24"/>
-      <c r="C112" s="25" t="s">
+      <c r="B112" s="12"/>
+      <c r="C112" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D112" s="26"/>
-      <c r="E112" s="26"/>
-      <c r="F112" s="26"/>
-      <c r="G112" s="26"/>
-      <c r="H112" s="26"/>
-      <c r="I112" s="26"/>
-      <c r="J112" s="26"/>
-      <c r="K112" s="27"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c r="G112" s="14"/>
+      <c r="H112" s="14"/>
+      <c r="I112" s="14"/>
+      <c r="J112" s="14"/>
+      <c r="K112" s="15"/>
       <c r="L112" s="7">
         <f>L111*$L$1</f>
         <v>35.64</v>
@@ -3376,57 +3377,57 @@
       </c>
     </row>
     <row r="115" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B115" s="11" t="s">
+      <c r="B115" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C115" s="14" t="s">
+      <c r="C115" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D115" s="15"/>
-      <c r="E115" s="15"/>
-      <c r="F115" s="15"/>
-      <c r="G115" s="15"/>
-      <c r="H115" s="15"/>
-      <c r="I115" s="15"/>
-      <c r="J115" s="15"/>
-      <c r="K115" s="16"/>
-      <c r="L115" s="11" t="s">
+      <c r="D115" s="20"/>
+      <c r="E115" s="20"/>
+      <c r="F115" s="20"/>
+      <c r="G115" s="20"/>
+      <c r="H115" s="20"/>
+      <c r="I115" s="20"/>
+      <c r="J115" s="20"/>
+      <c r="K115" s="21"/>
+      <c r="L115" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="116" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="12"/>
-      <c r="C116" s="17" t="s">
+      <c r="B116" s="17"/>
+      <c r="C116" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D116" s="18"/>
-      <c r="E116" s="18"/>
-      <c r="F116" s="18"/>
-      <c r="G116" s="18"/>
-      <c r="H116" s="18"/>
-      <c r="I116" s="18"/>
-      <c r="J116" s="18"/>
-      <c r="K116" s="19"/>
-      <c r="L116" s="12"/>
+      <c r="D116" s="23"/>
+      <c r="E116" s="23"/>
+      <c r="F116" s="23"/>
+      <c r="G116" s="23"/>
+      <c r="H116" s="23"/>
+      <c r="I116" s="23"/>
+      <c r="J116" s="23"/>
+      <c r="K116" s="24"/>
+      <c r="L116" s="17"/>
     </row>
     <row r="117" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="13"/>
-      <c r="C117" s="20" t="s">
+      <c r="B117" s="18"/>
+      <c r="C117" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D117" s="21"/>
-      <c r="E117" s="22"/>
-      <c r="F117" s="20" t="s">
+      <c r="D117" s="26"/>
+      <c r="E117" s="27"/>
+      <c r="F117" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="G117" s="21"/>
-      <c r="H117" s="22"/>
-      <c r="I117" s="20" t="s">
+      <c r="G117" s="26"/>
+      <c r="H117" s="27"/>
+      <c r="I117" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="J117" s="21"/>
-      <c r="K117" s="22"/>
-      <c r="L117" s="13"/>
+      <c r="J117" s="26"/>
+      <c r="K117" s="27"/>
+      <c r="L117" s="18"/>
     </row>
     <row r="118" spans="2:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B118" s="2" t="s">
@@ -3598,72 +3599,72 @@
       </c>
     </row>
     <row r="123" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="23"/>
-      <c r="C123" s="25" t="s">
+      <c r="B123" s="11"/>
+      <c r="C123" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D123" s="26"/>
-      <c r="E123" s="26"/>
-      <c r="F123" s="26"/>
-      <c r="G123" s="26"/>
-      <c r="H123" s="26"/>
-      <c r="I123" s="26"/>
-      <c r="J123" s="26"/>
-      <c r="K123" s="27"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c r="G123" s="14"/>
+      <c r="H123" s="14"/>
+      <c r="I123" s="14"/>
+      <c r="J123" s="14"/>
+      <c r="K123" s="15"/>
       <c r="L123" s="7">
         <f>SUM(L118:L122)</f>
         <v>14</v>
       </c>
     </row>
     <row r="124" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="24"/>
-      <c r="C124" s="25" t="s">
+      <c r="B124" s="12"/>
+      <c r="C124" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D124" s="26"/>
-      <c r="E124" s="26"/>
-      <c r="F124" s="26"/>
-      <c r="G124" s="26"/>
-      <c r="H124" s="26"/>
-      <c r="I124" s="26"/>
-      <c r="J124" s="26"/>
-      <c r="K124" s="27"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c r="G124" s="14"/>
+      <c r="H124" s="14"/>
+      <c r="I124" s="14"/>
+      <c r="J124" s="14"/>
+      <c r="K124" s="15"/>
       <c r="L124" s="7">
-        <f>Hoja1!$C$20</f>
+        <f>VAF!$C$20</f>
         <v>1.08</v>
       </c>
     </row>
     <row r="125" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="24"/>
-      <c r="C125" s="25" t="s">
+      <c r="B125" s="12"/>
+      <c r="C125" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D125" s="26"/>
-      <c r="E125" s="26"/>
-      <c r="F125" s="26"/>
-      <c r="G125" s="26"/>
-      <c r="H125" s="26"/>
-      <c r="I125" s="26"/>
-      <c r="J125" s="26"/>
-      <c r="K125" s="27"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c r="G125" s="14"/>
+      <c r="H125" s="14"/>
+      <c r="I125" s="14"/>
+      <c r="J125" s="14"/>
+      <c r="K125" s="15"/>
       <c r="L125" s="7">
         <f>L123*L124</f>
         <v>15.120000000000001</v>
       </c>
     </row>
     <row r="126" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="24"/>
-      <c r="C126" s="25" t="s">
+      <c r="B126" s="12"/>
+      <c r="C126" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D126" s="26"/>
-      <c r="E126" s="26"/>
-      <c r="F126" s="26"/>
-      <c r="G126" s="26"/>
-      <c r="H126" s="26"/>
-      <c r="I126" s="26"/>
-      <c r="J126" s="26"/>
-      <c r="K126" s="27"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14"/>
+      <c r="G126" s="14"/>
+      <c r="H126" s="14"/>
+      <c r="I126" s="14"/>
+      <c r="J126" s="14"/>
+      <c r="K126" s="15"/>
       <c r="L126" s="7">
         <f>L125*$L$1</f>
         <v>15.120000000000001</v>
@@ -3691,95 +3692,6 @@
     </row>
   </sheetData>
   <mergeCells count="108">
-    <mergeCell ref="B123:B126"/>
-    <mergeCell ref="C123:K123"/>
-    <mergeCell ref="C124:K124"/>
-    <mergeCell ref="C125:K125"/>
-    <mergeCell ref="C126:K126"/>
-    <mergeCell ref="B115:B117"/>
-    <mergeCell ref="C115:K115"/>
-    <mergeCell ref="L115:L117"/>
-    <mergeCell ref="C116:K116"/>
-    <mergeCell ref="C117:E117"/>
-    <mergeCell ref="F117:H117"/>
-    <mergeCell ref="I117:K117"/>
-    <mergeCell ref="L101:L103"/>
-    <mergeCell ref="C102:K102"/>
-    <mergeCell ref="C103:E103"/>
-    <mergeCell ref="F103:H103"/>
-    <mergeCell ref="I103:K103"/>
-    <mergeCell ref="B109:B112"/>
-    <mergeCell ref="C109:K109"/>
-    <mergeCell ref="C110:K110"/>
-    <mergeCell ref="C111:K111"/>
-    <mergeCell ref="C112:K112"/>
-    <mergeCell ref="B95:B98"/>
-    <mergeCell ref="C95:K95"/>
-    <mergeCell ref="C96:K96"/>
-    <mergeCell ref="C97:K97"/>
-    <mergeCell ref="C98:K98"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="C101:K101"/>
-    <mergeCell ref="B87:B89"/>
-    <mergeCell ref="C87:K87"/>
-    <mergeCell ref="L87:L89"/>
-    <mergeCell ref="C88:K88"/>
-    <mergeCell ref="C89:E89"/>
-    <mergeCell ref="F89:H89"/>
-    <mergeCell ref="I89:K89"/>
-    <mergeCell ref="L73:L75"/>
-    <mergeCell ref="C74:K74"/>
-    <mergeCell ref="C75:E75"/>
-    <mergeCell ref="F75:H75"/>
-    <mergeCell ref="I75:K75"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="C81:K81"/>
-    <mergeCell ref="C82:K82"/>
-    <mergeCell ref="C83:K83"/>
-    <mergeCell ref="C84:K84"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="C67:K67"/>
-    <mergeCell ref="C68:K68"/>
-    <mergeCell ref="C69:K69"/>
-    <mergeCell ref="C70:K70"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="C73:K73"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="C59:K59"/>
-    <mergeCell ref="L59:L61"/>
-    <mergeCell ref="C60:K60"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="F61:H61"/>
-    <mergeCell ref="I61:K61"/>
-    <mergeCell ref="L45:L47"/>
-    <mergeCell ref="C46:K46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="C53:K53"/>
-    <mergeCell ref="C54:K54"/>
-    <mergeCell ref="C55:K55"/>
-    <mergeCell ref="C56:K56"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:K39"/>
-    <mergeCell ref="C40:K40"/>
-    <mergeCell ref="C41:K41"/>
-    <mergeCell ref="C42:K42"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="C45:K45"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:K31"/>
-    <mergeCell ref="L31:L33"/>
-    <mergeCell ref="C32:K32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="L17:L19"/>
-    <mergeCell ref="C18:K18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:K3"/>
     <mergeCell ref="C4:K4"/>
@@ -3799,6 +3711,428 @@
     <mergeCell ref="C14:K14"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="C17:K17"/>
+    <mergeCell ref="L31:L33"/>
+    <mergeCell ref="C32:K32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:K39"/>
+    <mergeCell ref="C40:K40"/>
+    <mergeCell ref="C41:K41"/>
+    <mergeCell ref="C42:K42"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="C45:K45"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:K31"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C59:K59"/>
+    <mergeCell ref="L59:L61"/>
+    <mergeCell ref="C60:K60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="I61:K61"/>
+    <mergeCell ref="L45:L47"/>
+    <mergeCell ref="C46:K46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="C53:K53"/>
+    <mergeCell ref="C54:K54"/>
+    <mergeCell ref="C55:K55"/>
+    <mergeCell ref="C56:K56"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="C81:K81"/>
+    <mergeCell ref="C82:K82"/>
+    <mergeCell ref="C83:K83"/>
+    <mergeCell ref="C84:K84"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="C67:K67"/>
+    <mergeCell ref="C68:K68"/>
+    <mergeCell ref="C69:K69"/>
+    <mergeCell ref="C70:K70"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="C73:K73"/>
+    <mergeCell ref="L87:L89"/>
+    <mergeCell ref="C88:K88"/>
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="F89:H89"/>
+    <mergeCell ref="I89:K89"/>
+    <mergeCell ref="L73:L75"/>
+    <mergeCell ref="C74:K74"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="F75:H75"/>
+    <mergeCell ref="I75:K75"/>
+    <mergeCell ref="B95:B98"/>
+    <mergeCell ref="C95:K95"/>
+    <mergeCell ref="C96:K96"/>
+    <mergeCell ref="C97:K97"/>
+    <mergeCell ref="C98:K98"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="C101:K101"/>
+    <mergeCell ref="B87:B89"/>
+    <mergeCell ref="C87:K87"/>
+    <mergeCell ref="L101:L103"/>
+    <mergeCell ref="C102:K102"/>
+    <mergeCell ref="C103:E103"/>
+    <mergeCell ref="F103:H103"/>
+    <mergeCell ref="I103:K103"/>
+    <mergeCell ref="B109:B112"/>
+    <mergeCell ref="C109:K109"/>
+    <mergeCell ref="C110:K110"/>
+    <mergeCell ref="C111:K111"/>
+    <mergeCell ref="C112:K112"/>
+    <mergeCell ref="B123:B126"/>
+    <mergeCell ref="C123:K123"/>
+    <mergeCell ref="C124:K124"/>
+    <mergeCell ref="C125:K125"/>
+    <mergeCell ref="C126:K126"/>
+    <mergeCell ref="B115:B117"/>
+    <mergeCell ref="C115:K115"/>
+    <mergeCell ref="L115:L117"/>
+    <mergeCell ref="C116:K116"/>
+    <mergeCell ref="C117:E117"/>
+    <mergeCell ref="F117:H117"/>
+    <mergeCell ref="I117:K117"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:L13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="17"/>
+      <c r="C3" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="17"/>
+    </row>
+    <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="18"/>
+      <c r="C4" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="26"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="26"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="18"/>
+    </row>
+    <row r="5" spans="2:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="6">
+        <v>16</v>
+      </c>
+      <c r="D5" s="7">
+        <v>3</v>
+      </c>
+      <c r="E5" s="6">
+        <f>C5*D5</f>
+        <v>48</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7">
+        <v>4</v>
+      </c>
+      <c r="H5" s="6">
+        <f>F5*G5</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="7">
+        <v>6</v>
+      </c>
+      <c r="K5" s="6">
+        <f>I5*J5</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="7">
+        <f>E5+H5+K5</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>4</v>
+      </c>
+      <c r="E6" s="6">
+        <f>C6*D6</f>
+        <v>8</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7">
+        <v>5</v>
+      </c>
+      <c r="H6" s="6">
+        <f>F6*G6</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="7">
+        <v>7</v>
+      </c>
+      <c r="K6" s="6">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="7">
+        <f>E6+H6+K6</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="6">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7">
+        <v>3</v>
+      </c>
+      <c r="E7" s="6">
+        <f>C7*D7</f>
+        <v>24</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7">
+        <v>4</v>
+      </c>
+      <c r="H7" s="6">
+        <f>F7*G7</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="7">
+        <v>6</v>
+      </c>
+      <c r="K7" s="6">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="7">
+        <f>E7+H7+K7</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="6">
+        <v>4</v>
+      </c>
+      <c r="D8" s="7">
+        <v>7</v>
+      </c>
+      <c r="E8" s="6">
+        <f>C8*D8</f>
+        <v>28</v>
+      </c>
+      <c r="F8" s="6">
+        <v>8</v>
+      </c>
+      <c r="G8" s="7">
+        <v>10</v>
+      </c>
+      <c r="H8" s="6">
+        <f>F8*G8</f>
+        <v>80</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="7">
+        <v>15</v>
+      </c>
+      <c r="K8" s="6">
+        <f>I8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="7">
+        <f>E8+H8+K8</f>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7">
+        <v>5</v>
+      </c>
+      <c r="E9" s="6">
+        <f>C9*D9</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7">
+        <v>7</v>
+      </c>
+      <c r="H9" s="6">
+        <f>F9*G9</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="7">
+        <v>10</v>
+      </c>
+      <c r="K9" s="6">
+        <f>I9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="7">
+        <f>E9+H9+K9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="11"/>
+      <c r="C10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="7">
+        <f>SUM(L5:L9)</f>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="12"/>
+      <c r="C11" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="7">
+        <f>VAF!$C$20</f>
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="12"/>
+      <c r="C12" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="7">
+        <f>L10*L11</f>
+        <v>203.04000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="12"/>
+      <c r="C13" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="7">
+        <f>L12*1</f>
+        <v>203.04000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
